--- a/docs/excel/TGuide.xlsx
+++ b/docs/excel/TGuide.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>Id</t>
   </si>
@@ -356,6 +356,10 @@
   </si>
   <si>
     <t>面板枚举，按钮名称，坐标偏移，x,y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -820,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -871,7 +875,9 @@
       <c r="I1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="K1" s="12"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>

--- a/docs/excel/TGuide.xlsx
+++ b/docs/excel/TGuide.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>Id</t>
   </si>
@@ -105,21 +105,6 @@
   </si>
   <si>
     <t>TriggerParams</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.面板打开</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -161,10 +146,6 @@
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -325,20 +306,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Reward</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -360,6 +327,14 @@
   </si>
   <si>
     <t>#</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型(1.面板打开)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +402,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -480,6 +455,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -824,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -835,7 +813,7 @@
     <col min="3" max="3" width="8.09765625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.09765625" style="4" customWidth="1"/>
     <col min="8" max="8" width="30" style="5" customWidth="1"/>
     <col min="9" max="9" width="21.09765625" style="4" customWidth="1"/>
@@ -858,25 +836,25 @@
         <v>24</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>25</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>26</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K1" s="12"/>
       <c r="O1" s="6"/>
@@ -885,98 +863,105 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:17" ht="29.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="B3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="C4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="D4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="E4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="F4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="H4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
       <c r="H5" s="14"/>
       <c r="I5" s="12"/>
       <c r="K5" s="13"/>
@@ -992,18 +977,24 @@
       <c r="C6" s="10">
         <v>3</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
       <c r="E6" s="9">
         <v>1</v>
       </c>
       <c r="F6" s="14">
         <v>1</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="I6" s="12"/>
       <c r="J6" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="6"/>
@@ -1018,20 +1009,24 @@
       <c r="C7" s="10">
         <v>4</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
       <c r="E7" s="9">
         <v>2</v>
       </c>
       <c r="F7" s="14">
         <v>1</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
       <c r="H7" s="14"/>
       <c r="I7" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="6"/>
@@ -1046,20 +1041,24 @@
       <c r="C8" s="10">
         <v>5</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
       <c r="E8" s="9">
         <v>3</v>
       </c>
       <c r="F8" s="14">
         <v>1</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
       <c r="H8" s="14"/>
       <c r="I8" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="6"/>
@@ -1080,14 +1079,18 @@
       <c r="E9" s="9">
         <v>3</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="6"/>
@@ -1102,16 +1105,22 @@
       <c r="C10" s="10">
         <v>7</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
       <c r="E10" s="9">
         <v>3</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="12"/>
       <c r="J10" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="6"/>
@@ -1135,13 +1144,15 @@
       <c r="F11" s="14">
         <v>1</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
       <c r="H11" s="14"/>
       <c r="I11" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="6"/>
@@ -1156,20 +1167,24 @@
       <c r="C12" s="10">
         <v>9</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
       <c r="E12" s="9">
         <v>5</v>
       </c>
       <c r="F12" s="14">
         <v>1</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
       <c r="H12" s="14"/>
       <c r="I12" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="6"/>
@@ -1184,18 +1199,24 @@
       <c r="C13" s="10">
         <v>10</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
       <c r="E13" s="9">
         <v>5</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
       <c r="H13" s="10"/>
       <c r="I13" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L13" s="6"/>
     </row>
@@ -1215,16 +1236,18 @@
       <c r="E14" s="9">
         <v>5</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
       <c r="G14" s="14">
         <v>500</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L14" s="6"/>
     </row>
@@ -1238,16 +1261,22 @@
       <c r="C15" s="10">
         <v>12</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
       <c r="E15" s="9">
         <v>5</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15"/>
       <c r="J15" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L15" s="6"/>
     </row>
@@ -1261,16 +1290,22 @@
       <c r="C16" s="10">
         <v>13</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
       <c r="E16" s="9">
         <v>5</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
       <c r="H16" s="11"/>
       <c r="I16"/>
       <c r="J16" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L16" s="6"/>
     </row>
@@ -1284,20 +1319,24 @@
       <c r="C17" s="10">
         <v>14</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
       <c r="E17" s="9">
         <v>6</v>
       </c>
       <c r="F17" s="14">
         <v>1</v>
       </c>
-      <c r="G17" s="14"/>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
       <c r="H17" s="11"/>
       <c r="I17" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L17" s="6"/>
     </row>
@@ -1317,13 +1356,17 @@
       <c r="E18" s="9">
         <v>6</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="F18" s="23">
+        <v>0</v>
+      </c>
+      <c r="G18" s="23">
+        <v>0</v>
+      </c>
       <c r="I18" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L18" s="6"/>
     </row>
@@ -1337,12 +1380,20 @@
       <c r="C19" s="10">
         <v>16</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
       <c r="E19" s="9">
         <v>6</v>
       </c>
+      <c r="F19" s="24">
+        <v>0</v>
+      </c>
+      <c r="G19" s="23">
+        <v>0</v>
+      </c>
       <c r="J19" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1362,14 +1413,16 @@
         <v>7</v>
       </c>
       <c r="F20" s="23">
-        <v>1</v>
-      </c>
-      <c r="G20" s="23"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="23">
+        <v>0</v>
+      </c>
       <c r="I20" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1379,19 +1432,26 @@
       <c r="B21">
         <v>16</v>
       </c>
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
       <c r="D21" s="9">
         <v>1</v>
       </c>
       <c r="E21" s="9">
         <v>7</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
+      <c r="F21" s="23">
+        <v>0</v>
+      </c>
+      <c r="G21" s="23">
+        <v>0</v>
+      </c>
       <c r="I21" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1478,7 +1538,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TGuide.xlsx
+++ b/docs/excel/TGuide.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>Id</t>
   </si>
@@ -101,10 +101,6 @@
   </si>
   <si>
     <t>TriggerType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TriggerParams</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -315,14 +311,6 @@
   </si>
   <si>
     <t>奖励金币数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>22,goinRoom_btn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>面板枚举，按钮名称，坐标偏移，x,y</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -402,7 +390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -412,11 +400,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -441,14 +425,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -800,714 +780,688 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.5" style="18" customWidth="1"/>
+    <col min="1" max="1" width="39.5" style="15" customWidth="1"/>
     <col min="2" max="2" width="8.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.09765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.09765625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.09765625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="30" style="5" customWidth="1"/>
-    <col min="9" max="9" width="21.09765625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="23" style="4" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" customWidth="1"/>
-    <col min="13" max="13" width="23.8984375" customWidth="1"/>
-    <col min="14" max="14" width="24.3984375" customWidth="1"/>
-    <col min="16" max="16" width="12.8984375" customWidth="1"/>
-    <col min="17" max="17" width="14.8984375" customWidth="1"/>
+    <col min="8" max="8" width="21.09765625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" customWidth="1"/>
+    <col min="12" max="12" width="23.8984375" customWidth="1"/>
+    <col min="13" max="13" width="24.3984375" customWidth="1"/>
+    <col min="15" max="15" width="12.8984375" customWidth="1"/>
+    <col min="16" max="16" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="12" t="s">
+      <c r="D2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="12"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="G2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:17" ht="29.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10">
-        <v>3</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="F6" s="12">
         <v>1</v>
       </c>
-      <c r="F6" s="14">
-        <v>1</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>4</v>
       </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
         <v>2</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>1</v>
       </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
         <v>4</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>5</v>
       </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
         <v>3</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <v>1</v>
       </c>
-      <c r="G8" s="14">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
         <v>5</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>6</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>3</v>
       </c>
-      <c r="F9" s="14">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14">
-        <v>0</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="9" t="s">
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+      <c r="I9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
         <v>6</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>7</v>
       </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
         <v>3</v>
       </c>
-      <c r="F10" s="14">
-        <v>0</v>
-      </c>
-      <c r="G10" s="14">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
         <v>7</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>8</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>4</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <v>1</v>
       </c>
-      <c r="G11" s="14">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="9" t="s">
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+      <c r="I11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>8</v>
       </c>
       <c r="B12">
         <v>7</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>9</v>
       </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
         <v>5</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="12">
         <v>1</v>
       </c>
-      <c r="G12" s="14">
-        <v>0</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="9" t="s">
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
+      <c r="I12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
         <v>9</v>
       </c>
       <c r="B13">
         <v>8</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>10</v>
       </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
         <v>5</v>
       </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
-        <v>0</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="9" t="s">
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
+      <c r="I13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
         <v>10</v>
       </c>
       <c r="B14">
         <v>9</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <v>11</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="7">
         <v>1</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <v>5</v>
       </c>
-      <c r="F14" s="14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14">
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
         <v>500</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="9" t="s">
+      <c r="H14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
+      <c r="I14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
         <v>11</v>
       </c>
       <c r="B15">
         <v>10</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <v>12</v>
       </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
         <v>5</v>
       </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15"/>
-      <c r="J15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
         <v>12</v>
       </c>
       <c r="B16">
         <v>11</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="8">
         <v>13</v>
       </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
         <v>5</v>
       </c>
-      <c r="F16" s="14">
-        <v>0</v>
-      </c>
-      <c r="G16" s="14">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16"/>
-      <c r="J16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
         <v>13</v>
       </c>
       <c r="B17">
         <v>12</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <v>14</v>
       </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
         <v>6</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="12">
         <v>1</v>
       </c>
-      <c r="G17" s="14">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="8">
         <v>14</v>
       </c>
       <c r="B18">
         <v>13</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="8">
         <v>15</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="7">
         <v>1</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="7">
         <v>6</v>
       </c>
-      <c r="F18" s="23">
-        <v>0</v>
-      </c>
-      <c r="G18" s="23">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="8" t="s">
+      <c r="F18" s="19">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
+      <c r="I18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
         <v>15</v>
       </c>
       <c r="B19">
         <v>14</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="8">
         <v>16</v>
       </c>
-      <c r="D19" s="9">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
         <v>6</v>
       </c>
-      <c r="F19" s="24">
-        <v>0</v>
-      </c>
-      <c r="G19" s="23">
-        <v>0</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
+      <c r="F19" s="20">
+        <v>0</v>
+      </c>
+      <c r="G19" s="19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="8">
         <v>16</v>
       </c>
       <c r="B20">
         <v>15</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="8">
         <v>17</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="7">
         <v>1</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="7">
         <v>7</v>
       </c>
-      <c r="F20" s="23">
-        <v>0</v>
-      </c>
-      <c r="G20" s="23">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
+      <c r="F20" s="19">
+        <v>0</v>
+      </c>
+      <c r="G20" s="19">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="8">
         <v>17</v>
       </c>
       <c r="B21">
         <v>16</v>
       </c>
-      <c r="C21" s="10">
-        <v>0</v>
-      </c>
-      <c r="D21" s="9">
+      <c r="C21" s="8">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
         <v>1</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <v>7</v>
       </c>
-      <c r="F21" s="23">
-        <v>0</v>
-      </c>
-      <c r="G21" s="23">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
+      <c r="F21" s="19">
+        <v>0</v>
+      </c>
+      <c r="G21" s="19">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
       <c r="B32"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
+      <c r="A33" s="8"/>
       <c r="B33"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
+      <c r="A34" s="8"/>
       <c r="B34"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
+      <c r="A35" s="8"/>
       <c r="B35"/>
     </row>
   </sheetData>
@@ -1538,7 +1492,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1615,10 +1569,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1626,7 +1580,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1634,7 +1588,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1642,7 +1596,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>22</v>
       </c>
     </row>

--- a/docs/excel/TGuide.xlsx
+++ b/docs/excel/TGuide.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Id</t>
   </si>
@@ -210,14 +210,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>指向客厅金币位置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>指向房屋升级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>这里是房子中客厅的收益，每隔一定的时间就会有金币产生，要及时来收取金币。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -226,54 +218,26 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>指向房屋升级按钮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>点击升级按钮，就可以开启卧室了</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>指向返回按钮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>指向卧室金币位置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>点击这里，领取卧室产生的金币</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>指向邻居按钮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>让我们看看楼里邻居的状况</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>指向邻居列表NPC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>选择其中一个邻居，进入他的房间吧</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>指向邻居客厅金币NPC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>点击邻居家客厅的金币，就可以抢夺他的金币了</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>指向邻居列表的返回按钮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TableName: "TGuide" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -282,10 +246,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>指向客厅升级按钮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>升级客厅可以提升金币产量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -298,10 +258,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>赠送房间页面，点击“进入房间”按钮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Reward</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -311,10 +267,6 @@
   </si>
   <si>
     <t>奖励金币数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -780,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -796,15 +748,14 @@
     <col min="6" max="6" width="14.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.09765625" style="4" customWidth="1"/>
     <col min="8" max="8" width="21.09765625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="23" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="23.8984375" customWidth="1"/>
-    <col min="13" max="13" width="24.3984375" customWidth="1"/>
-    <col min="15" max="15" width="12.8984375" customWidth="1"/>
-    <col min="16" max="16" width="14.8984375" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" customWidth="1"/>
+    <col min="11" max="11" width="23.8984375" customWidth="1"/>
+    <col min="12" max="12" width="24.3984375" customWidth="1"/>
+    <col min="14" max="14" width="12.8984375" customWidth="1"/>
+    <col min="15" max="15" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -824,20 +775,17 @@
         <v>25</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
@@ -854,19 +802,18 @@
         <v>29</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>30</v>
       </c>
       <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -877,12 +824,11 @@
       <c r="G3" s="10"/>
       <c r="H3" s="11"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>37</v>
@@ -897,19 +843,19 @@
         <v>34</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -932,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I5" s="11"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -958,13 +904,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="10"/>
-      <c r="I6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I6" s="11"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -987,15 +930,12 @@
         <v>0</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I7" s="11"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -1018,15 +958,12 @@
         <v>0</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I8" s="9"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -1049,15 +986,12 @@
         <v>0</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -1080,13 +1014,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I10" s="11"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -1109,15 +1040,12 @@
         <v>0</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -1140,15 +1068,12 @@
         <v>0</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -1171,14 +1096,11 @@
         <v>0</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -1201,14 +1123,11 @@
         <v>500</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>11</v>
       </c>
@@ -1231,12 +1150,9 @@
         <v>0</v>
       </c>
       <c r="H15"/>
-      <c r="I15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>12</v>
       </c>
@@ -1259,12 +1175,9 @@
         <v>0</v>
       </c>
       <c r="H16"/>
-      <c r="I16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>13</v>
       </c>
@@ -1287,14 +1200,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>14</v>
       </c>
@@ -1317,14 +1227,11 @@
         <v>0</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>15</v>
       </c>
@@ -1346,11 +1253,8 @@
       <c r="G19" s="19">
         <v>0</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>16</v>
       </c>
@@ -1373,13 +1277,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>17</v>
       </c>
@@ -1402,53 +1303,50 @@
         <v>0</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32"/>
     </row>
@@ -1492,7 +1390,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TGuide.xlsx
+++ b/docs/excel/TGuide.xlsx
@@ -165,11 +165,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>完成标记
-1是完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -275,6 +270,10 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成标记1是完成</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -734,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -775,7 +774,7 @@
         <v>25</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>26</v>
@@ -802,10 +801,10 @@
         <v>29</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>30</v>
@@ -828,25 +827,25 @@
     </row>
     <row r="4" spans="1:15" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>35</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>33</v>
@@ -930,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="5"/>
@@ -958,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="5"/>
@@ -986,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="5"/>
@@ -1040,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="5"/>
@@ -1068,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="5"/>
@@ -1096,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J13" s="5"/>
     </row>
@@ -1123,7 +1122,7 @@
         <v>500</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J14" s="5"/>
     </row>
@@ -1200,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J17" s="5"/>
     </row>
@@ -1227,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J18" s="5"/>
     </row>
@@ -1277,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
@@ -1303,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1390,7 +1389,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TGuide.xlsx
+++ b/docs/excel/TGuide.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>Id</t>
   </si>
@@ -101,6 +101,10 @@
   </si>
   <si>
     <t>TriggerType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerParams</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -205,6 +209,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>指向客厅金币位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指向房屋升级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>这里是房子中客厅的收益，每隔一定的时间就会有金币产生，要及时来收取金币。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -213,26 +225,54 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>指向房屋升级按钮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>点击升级按钮，就可以开启卧室了</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>指向返回按钮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指向卧室金币位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>点击这里，领取卧室产生的金币</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>指向邻居按钮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>让我们看看楼里邻居的状况</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>指向邻居列表NPC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>选择其中一个邻居，进入他的房间吧</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>指向邻居客厅金币NPC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>点击邻居家客厅的金币，就可以抢夺他的金币了</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>指向邻居列表的返回按钮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>TableName: "TGuide" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -241,6 +281,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>指向客厅升级按钮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>升级客厅可以提升金币产量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -253,6 +297,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>赠送房间页面，点击“进入房间”按钮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Reward</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -262,6 +310,18 @@
   </si>
   <si>
     <t>奖励金币数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,goinRoom_btn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>面板枚举，按钮名称，坐标偏移，x,y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -341,7 +401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -351,7 +411,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -376,10 +440,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -731,634 +799,714 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.5" style="15" customWidth="1"/>
+    <col min="1" max="1" width="39.5" style="18" customWidth="1"/>
     <col min="2" max="2" width="8.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.09765625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.09765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.8984375" style="4" customWidth="1"/>
     <col min="5" max="5" width="6.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.09765625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="21.09765625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.59765625" customWidth="1"/>
-    <col min="11" max="11" width="23.8984375" customWidth="1"/>
-    <col min="12" max="12" width="24.3984375" customWidth="1"/>
-    <col min="14" max="14" width="12.8984375" customWidth="1"/>
-    <col min="15" max="15" width="14.8984375" customWidth="1"/>
+    <col min="8" max="8" width="30" style="5" customWidth="1"/>
+    <col min="9" max="9" width="21.09765625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="23" style="4" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" customWidth="1"/>
+    <col min="13" max="13" width="23.8984375" customWidth="1"/>
+    <col min="14" max="14" width="24.3984375" customWidth="1"/>
+    <col min="16" max="16" width="12.8984375" customWidth="1"/>
+    <col min="17" max="17" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="10"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="I2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" ht="29.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="16" t="s">
+      <c r="B3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="10">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
         <v>1</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="14">
         <v>1</v>
       </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
         <v>3</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="10">
         <v>4</v>
       </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
         <v>2</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="14">
         <v>1</v>
       </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
         <v>4</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="10">
         <v>5</v>
       </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
         <v>3</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="14">
         <v>1</v>
       </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
         <v>5</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="10">
         <v>6</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="9">
         <v>1</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="9">
         <v>3</v>
       </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="10">
         <v>7</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
         <v>3</v>
       </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
         <v>7</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="10">
         <v>8</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="9">
         <v>1</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="9">
         <v>4</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="14">
         <v>1</v>
       </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
         <v>8</v>
       </c>
       <c r="B12">
         <v>7</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="10">
         <v>9</v>
       </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
         <v>5</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="14">
         <v>1</v>
       </c>
-      <c r="G12" s="12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
         <v>9</v>
       </c>
       <c r="B13">
         <v>8</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="10">
         <v>10</v>
       </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
         <v>5</v>
       </c>
-      <c r="F13" s="12">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
         <v>10</v>
       </c>
       <c r="B14">
         <v>9</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="10">
         <v>11</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="9">
         <v>1</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="9">
         <v>5</v>
       </c>
-      <c r="F14" s="12">
-        <v>0</v>
-      </c>
-      <c r="G14" s="12">
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
         <v>500</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+      <c r="H14" s="11"/>
+      <c r="I14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
         <v>11</v>
       </c>
       <c r="B15">
         <v>10</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="10">
         <v>12</v>
       </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
         <v>5</v>
       </c>
-      <c r="F15" s="12">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0</v>
-      </c>
-      <c r="H15"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15"/>
+      <c r="J15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
         <v>12</v>
       </c>
       <c r="B16">
         <v>11</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="10">
         <v>13</v>
       </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
         <v>5</v>
       </c>
-      <c r="F16" s="12">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0</v>
-      </c>
-      <c r="H16"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16"/>
+      <c r="J16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
         <v>13</v>
       </c>
       <c r="B17">
         <v>12</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="10">
         <v>14</v>
       </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
         <v>6</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="14">
         <v>1</v>
       </c>
-      <c r="G17" s="12">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="8">
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
         <v>14</v>
       </c>
       <c r="B18">
         <v>13</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="10">
         <v>15</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="9">
         <v>1</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="9">
         <v>6</v>
       </c>
-      <c r="F18" s="19">
-        <v>0</v>
-      </c>
-      <c r="G18" s="19">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+      <c r="F18" s="23">
+        <v>0</v>
+      </c>
+      <c r="G18" s="23">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
         <v>15</v>
       </c>
       <c r="B19">
         <v>14</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="10">
         <v>16</v>
       </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
         <v>6</v>
       </c>
-      <c r="F19" s="20">
-        <v>0</v>
-      </c>
-      <c r="G19" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="8">
+      <c r="F19" s="24">
+        <v>0</v>
+      </c>
+      <c r="G19" s="23">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
         <v>16</v>
       </c>
       <c r="B20">
         <v>15</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="10">
         <v>17</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="9">
         <v>1</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="9">
         <v>7</v>
       </c>
-      <c r="F20" s="19">
-        <v>0</v>
-      </c>
-      <c r="G20" s="19">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="8">
+      <c r="F20" s="23">
+        <v>0</v>
+      </c>
+      <c r="G20" s="23">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
         <v>17</v>
       </c>
       <c r="B21">
         <v>16</v>
       </c>
-      <c r="C21" s="8">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
         <v>1</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="9">
         <v>7</v>
       </c>
-      <c r="F21" s="19">
-        <v>0</v>
-      </c>
-      <c r="G21" s="19">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="F21" s="23">
+        <v>0</v>
+      </c>
+      <c r="G21" s="23">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
       <c r="B32"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
+      <c r="A33" s="10"/>
       <c r="B33"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
+      <c r="A34" s="10"/>
       <c r="B34"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
+      <c r="A35" s="10"/>
       <c r="B35"/>
     </row>
   </sheetData>
@@ -1389,7 +1537,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1466,10 +1614,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1477,7 +1625,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1485,7 +1633,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1493,7 +1641,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>22</v>
       </c>
     </row>

--- a/docs/excel/TGuide.xlsx
+++ b/docs/excel/TGuide.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>Id</t>
   </si>
@@ -313,27 +313,55 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>面板枚举，按钮名称，坐标偏移，x,y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型(1.面板打开)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成标记1是完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinishParams</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinishType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>该步引导完成类型(1.点击面板元素)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>22,goinRoom_btn</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>面板枚举，按钮名称，坐标偏移，x,y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型(1.面板打开)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成标记1是完成</t>
+    <t>goinRoom_btn</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -799,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -814,17 +842,18 @@
     <col min="5" max="5" width="6.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.09765625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="30" style="5" customWidth="1"/>
-    <col min="9" max="9" width="21.09765625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="23" style="4" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" customWidth="1"/>
-    <col min="13" max="13" width="23.8984375" customWidth="1"/>
-    <col min="14" max="14" width="24.3984375" customWidth="1"/>
-    <col min="16" max="16" width="12.8984375" customWidth="1"/>
-    <col min="17" max="17" width="14.8984375" customWidth="1"/>
+    <col min="8" max="8" width="29.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="29.19921875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="21.09765625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="23" style="4" customWidth="1"/>
+    <col min="14" max="14" width="10.59765625" customWidth="1"/>
+    <col min="15" max="15" width="23.8984375" customWidth="1"/>
+    <col min="16" max="16" width="24.3984375" customWidth="1"/>
+    <col min="18" max="18" width="12.8984375" customWidth="1"/>
+    <col min="19" max="19" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -850,17 +879,23 @@
         <v>26</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="12"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="L1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="12"/>
       <c r="Q1" s="6"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
@@ -885,14 +920,18 @@
       <c r="H2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
@@ -903,13 +942,15 @@
       <c r="G3" s="12"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:17" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>37</v>
@@ -918,28 +959,34 @@
         <v>36</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>35</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>63</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -962,11 +1009,13 @@
         <v>0</v>
       </c>
       <c r="H5" s="14"/>
-      <c r="I5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="12"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -977,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="9">
         <v>1</v>
@@ -989,16 +1038,22 @@
         <v>0</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M6" s="13"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -1009,7 +1064,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="9">
         <v>2</v>
@@ -1021,16 +1076,18 @@
         <v>0</v>
       </c>
       <c r="H7" s="14"/>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="L7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M7" s="13"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -1053,16 +1110,18 @@
         <v>0</v>
       </c>
       <c r="H8" s="14"/>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="L8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M8" s="11"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>5</v>
       </c>
@@ -1085,16 +1144,18 @@
         <v>0</v>
       </c>
       <c r="H9" s="14"/>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="L9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M9" s="11"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>6</v>
       </c>
@@ -1117,14 +1178,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="14"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="9" t="s">
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M10" s="13"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>7</v>
       </c>
@@ -1147,16 +1210,18 @@
         <v>0</v>
       </c>
       <c r="H11" s="14"/>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="L11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M11" s="13"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>8</v>
       </c>
@@ -1179,16 +1244,18 @@
         <v>0</v>
       </c>
       <c r="H12" s="14"/>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="L12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M12" s="13"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>9</v>
       </c>
@@ -1211,15 +1278,17 @@
         <v>0</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="L13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>10</v>
       </c>
@@ -1242,15 +1311,17 @@
         <v>500</v>
       </c>
       <c r="H14" s="11"/>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="L14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>11</v>
       </c>
@@ -1273,13 +1344,15 @@
         <v>0</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15"/>
-      <c r="J15" s="9" t="s">
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15"/>
+      <c r="L15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>12</v>
       </c>
@@ -1302,13 +1375,15 @@
         <v>0</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16"/>
-      <c r="J16" s="9" t="s">
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16"/>
+      <c r="L16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>13</v>
       </c>
@@ -1331,15 +1406,17 @@
         <v>0</v>
       </c>
       <c r="H17" s="11"/>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="L17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>14</v>
       </c>
@@ -1361,15 +1438,15 @@
       <c r="G18" s="23">
         <v>0</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="K18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="L18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>15</v>
       </c>
@@ -1391,11 +1468,11 @@
       <c r="G19" s="23">
         <v>0</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="L19" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>16</v>
       </c>
@@ -1417,14 +1494,14 @@
       <c r="G20" s="23">
         <v>0</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="K20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="L20" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>17</v>
       </c>
@@ -1446,54 +1523,54 @@
       <c r="G21" s="23">
         <v>0</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="K21" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="L21" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32"/>
     </row>

--- a/docs/excel/TGuide.xlsx
+++ b/docs/excel/TGuide.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>Id</t>
   </si>
@@ -362,6 +362,10 @@
   </si>
   <si>
     <t>goinRoom_btn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -830,7 +834,7 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -920,7 +924,9 @@
       <c r="H2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" s="13" t="s">
+        <v>77</v>
+      </c>
       <c r="J2" s="13" t="s">
         <v>70</v>
       </c>

--- a/docs/excel/TGuide.xlsx
+++ b/docs/excel/TGuide.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
   <si>
     <t>Id</t>
   </si>
@@ -321,18 +321,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>类型(1.面板打开)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>完成标记1是完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>FinishParams</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -366,6 +358,22 @@
   </si>
   <si>
     <t>int32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型(0.立即执行下一步引导，如果下一步引导不在，则停止引导1.面板打开)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndFlag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端完成标记1.完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器完成标记1.完成</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -831,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -842,22 +850,23 @@
     <col min="1" max="1" width="39.5" style="18" customWidth="1"/>
     <col min="2" max="2" width="8.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.09765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.8984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.09765625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="29.19921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="29.19921875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="21.09765625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="23" style="4" customWidth="1"/>
-    <col min="14" max="14" width="10.59765625" customWidth="1"/>
-    <col min="15" max="15" width="23.8984375" customWidth="1"/>
-    <col min="16" max="16" width="24.3984375" customWidth="1"/>
-    <col min="18" max="18" width="12.8984375" customWidth="1"/>
-    <col min="19" max="19" width="14.8984375" customWidth="1"/>
+    <col min="4" max="4" width="21" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18" style="4" customWidth="1"/>
+    <col min="6" max="6" width="6.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="29.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="29.19921875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="21.09765625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="23" style="4" customWidth="1"/>
+    <col min="15" max="15" width="10.59765625" customWidth="1"/>
+    <col min="16" max="16" width="23.8984375" customWidth="1"/>
+    <col min="17" max="17" width="24.3984375" customWidth="1"/>
+    <col min="19" max="19" width="12.8984375" customWidth="1"/>
+    <col min="20" max="20" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -871,35 +880,38 @@
         <v>32</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>72</v>
-      </c>
       <c r="J1" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="Q1" s="6"/>
+      <c r="N1" s="12"/>
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T1" s="6"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
@@ -916,28 +928,31 @@
         <v>30</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>77</v>
-      </c>
       <c r="J2" s="13" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="12"/>
       <c r="M2" s="12"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N2" s="12"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
@@ -946,17 +961,18 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
-      <c r="L3" s="12"/>
+      <c r="L3" s="13"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N3" s="12"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>37</v>
@@ -965,34 +981,37 @@
         <v>36</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="G4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="I4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>74</v>
-      </c>
       <c r="J4" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -1005,23 +1024,24 @@
       <c r="D5" s="9">
         <v>0</v>
       </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
         <v>0</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="12"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K5" s="14"/>
+      <c r="L5" s="12"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -1037,29 +1057,32 @@
       <c r="E6" s="9">
         <v>1</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="9">
         <v>1</v>
       </c>
       <c r="G6" s="14">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>75</v>
+        <v>1</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>73</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N6" s="13"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -1073,27 +1096,30 @@
         <v>1</v>
       </c>
       <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
         <v>2</v>
       </c>
-      <c r="F7" s="14">
-        <v>1</v>
-      </c>
       <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="14"/>
+      <c r="L7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="M7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N7" s="13"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>4</v>
       </c>
@@ -1107,27 +1133,30 @@
         <v>0</v>
       </c>
       <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
         <v>3</v>
       </c>
-      <c r="F8" s="14">
-        <v>1</v>
-      </c>
       <c r="G8" s="14">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="14"/>
+      <c r="L8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="M8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N8" s="11"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>5</v>
       </c>
@@ -1141,27 +1170,30 @@
         <v>1</v>
       </c>
       <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
         <v>3</v>
       </c>
-      <c r="F9" s="14">
-        <v>0</v>
-      </c>
       <c r="G9" s="14">
         <v>0</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="14"/>
+      <c r="L9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="M9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N9" s="11"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>6</v>
       </c>
@@ -1175,25 +1207,28 @@
         <v>0</v>
       </c>
       <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
         <v>3</v>
       </c>
-      <c r="F10" s="14">
-        <v>0</v>
-      </c>
       <c r="G10" s="14">
         <v>0</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="9" t="s">
+      <c r="K10" s="14"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N10" s="13"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>7</v>
       </c>
@@ -1207,27 +1242,30 @@
         <v>1</v>
       </c>
       <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
         <v>4</v>
       </c>
-      <c r="F11" s="14">
-        <v>1</v>
-      </c>
       <c r="G11" s="14">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="14"/>
+      <c r="L11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="M11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N11" s="13"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>8</v>
       </c>
@@ -1241,27 +1279,30 @@
         <v>0</v>
       </c>
       <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
         <v>5</v>
       </c>
-      <c r="F12" s="14">
-        <v>1</v>
-      </c>
       <c r="G12" s="14">
-        <v>0</v>
-      </c>
-      <c r="H12" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="14"/>
+      <c r="L12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="M12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N12" s="13"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>9</v>
       </c>
@@ -1275,26 +1316,29 @@
         <v>0</v>
       </c>
       <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
         <v>5</v>
       </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
       <c r="G13" s="14">
         <v>0</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="10"/>
+      <c r="L13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="M13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>10</v>
       </c>
@@ -1308,26 +1352,29 @@
         <v>1</v>
       </c>
       <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
         <v>5</v>
       </c>
-      <c r="F14" s="14">
-        <v>0</v>
-      </c>
       <c r="G14" s="14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
         <v>500</v>
       </c>
-      <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="11"/>
+      <c r="L14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="M14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>11</v>
       </c>
@@ -1341,24 +1388,27 @@
         <v>0</v>
       </c>
       <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
         <v>5</v>
       </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
       <c r="G15" s="14">
         <v>0</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="14">
+        <v>0</v>
+      </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15"/>
-      <c r="L15" s="9" t="s">
+      <c r="K15" s="7"/>
+      <c r="L15"/>
+      <c r="M15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>12</v>
       </c>
@@ -1372,24 +1422,27 @@
         <v>0</v>
       </c>
       <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
         <v>5</v>
       </c>
-      <c r="F16" s="14">
-        <v>0</v>
-      </c>
       <c r="G16" s="14">
         <v>0</v>
       </c>
-      <c r="H16" s="11"/>
+      <c r="H16" s="14">
+        <v>0</v>
+      </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
-      <c r="K16"/>
-      <c r="L16" s="9" t="s">
+      <c r="K16" s="11"/>
+      <c r="L16"/>
+      <c r="M16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>13</v>
       </c>
@@ -1403,26 +1456,29 @@
         <v>0</v>
       </c>
       <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
         <v>6</v>
       </c>
-      <c r="F17" s="14">
-        <v>1</v>
-      </c>
       <c r="G17" s="14">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0</v>
+      </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="11"/>
+      <c r="L17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="M17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>14</v>
       </c>
@@ -1436,23 +1492,26 @@
         <v>1</v>
       </c>
       <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
         <v>6</v>
       </c>
-      <c r="F18" s="23">
-        <v>0</v>
-      </c>
       <c r="G18" s="23">
         <v>0</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="H18" s="23">
+        <v>0</v>
+      </c>
+      <c r="L18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="M18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>15</v>
       </c>
@@ -1466,19 +1525,22 @@
         <v>0</v>
       </c>
       <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9">
         <v>6</v>
       </c>
-      <c r="F19" s="24">
-        <v>0</v>
-      </c>
-      <c r="G19" s="23">
-        <v>0</v>
-      </c>
-      <c r="L19" s="8" t="s">
+      <c r="G19" s="24">
+        <v>0</v>
+      </c>
+      <c r="H19" s="23">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>16</v>
       </c>
@@ -1492,22 +1554,25 @@
         <v>1</v>
       </c>
       <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
         <v>7</v>
       </c>
-      <c r="F20" s="23">
-        <v>0</v>
-      </c>
       <c r="G20" s="23">
         <v>0</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="H20" s="23">
+        <v>0</v>
+      </c>
+      <c r="L20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="M20" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>17</v>
       </c>
@@ -1521,62 +1586,65 @@
         <v>1</v>
       </c>
       <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9">
         <v>7</v>
       </c>
-      <c r="F21" s="23">
-        <v>0</v>
-      </c>
       <c r="G21" s="23">
         <v>0</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="H21" s="23">
+        <v>0</v>
+      </c>
+      <c r="L21" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="M21" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32"/>
     </row>

--- a/docs/excel/TGuide.xlsx
+++ b/docs/excel/TGuide.xlsx
@@ -333,18 +333,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>完成参数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>FinishType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>该步引导完成类型(1.点击面板元素)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -361,10 +353,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>类型(0.立即执行下一步引导，如果下一步引导不在，则停止引导1.面板打开)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>EndFlag</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -374,6 +362,18 @@
   </si>
   <si>
     <t>服务器完成标记1.完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型(0.立即执行下一步引导，如果下一步引导不在，则停止引导;1.面板打开)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>any</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成参数(any，点击任何地方完成)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>28</v>
@@ -895,7 +895,7 @@
         <v>26</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>67</v>
@@ -940,7 +940,7 @@
         <v>31</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>68</v>
@@ -981,16 +981,16 @@
         <v>36</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>63</v>
@@ -999,10 +999,10 @@
         <v>64</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>34</v>
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="16" t="s">
         <v>71</v>
       </c>
+      <c r="J6" s="14">
+        <v>1</v>
+      </c>
       <c r="K6" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="9" t="s">
@@ -1108,8 +1108,12 @@
         <v>0</v>
       </c>
       <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="J7" s="14">
+        <v>1</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="L7" s="9" t="s">
         <v>40</v>
       </c>

--- a/docs/excel/TGuide.xlsx
+++ b/docs/excel/TGuide.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
   <si>
     <t>Id</t>
   </si>
@@ -337,7 +337,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>该步引导完成类型(1.点击面板元素)</t>
+    <t>int32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端完成标记1.完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器完成标记1.完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型(0.立即执行下一步引导，如果下一步引导不在，则停止引导;1.面板打开)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成参数(any，点击任何地方完成)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>该步引导完成类型(0.触发即完成1.点击面板元素)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -345,11 +365,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>goinRoom_btn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
+    <t>自动完成,只要引导触发就算该步骤完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoFinishFlag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg.GW2C_AckTakeSelfHouseGoldRet</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckTakeSelfHouseGoldRet</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -357,31 +384,70 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>客户端完成标记1.完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器完成标记1.完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型(0.立即执行下一步引导，如果下一步引导不在，则停止引导;1.面板打开)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>any</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成参数(any，点击任何地方完成)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>19,level_btn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,532,440, 170,66</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,361,627,135,219</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg.GW2C_AckHouseLevelUp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,hideList_btn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,482,458,135,219</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,lingju_btn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,517,431,150,56</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg.GW2C_AckHouseDataByHouseId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,356,637,135,219</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg.GW2C_AckTakeOtherHouseGoldRet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,titlePanel,return_btn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,16,5,160,60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,532,606, 170,66</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg.GW2C_AckHouseCellLevelUp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -408,6 +474,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -441,7 +514,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -453,9 +526,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -497,6 +567,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -839,829 +915,988 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.5" style="18" customWidth="1"/>
+    <col min="1" max="1" width="39.5" style="17" customWidth="1"/>
     <col min="2" max="2" width="8.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.09765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.09765625" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="4" customWidth="1"/>
     <col min="5" max="5" width="18" style="4" customWidth="1"/>
-    <col min="6" max="6" width="6.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.09765625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="29.19921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="29.19921875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="21.09765625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="23" style="4" customWidth="1"/>
-    <col min="15" max="15" width="10.59765625" customWidth="1"/>
-    <col min="16" max="16" width="23.8984375" customWidth="1"/>
-    <col min="17" max="17" width="24.3984375" customWidth="1"/>
-    <col min="19" max="19" width="12.8984375" customWidth="1"/>
-    <col min="20" max="20" width="14.8984375" customWidth="1"/>
+    <col min="6" max="6" width="30.3984375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.796875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="24.3984375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="12.19921875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="26.796875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="16.19921875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="23" style="4" customWidth="1"/>
+    <col min="16" max="16" width="10.59765625" customWidth="1"/>
+    <col min="17" max="17" width="23.8984375" customWidth="1"/>
+    <col min="18" max="18" width="24.3984375" customWidth="1"/>
+    <col min="20" max="20" width="12.8984375" customWidth="1"/>
+    <col min="21" max="21" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="R1" s="6"/>
+      <c r="O1" s="11"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="U1" s="6"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:21" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="I4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="11"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="12"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10">
-        <v>3</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="14">
-        <v>1</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="14">
-        <v>1</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="9" t="s">
+      <c r="K6" s="24">
+        <v>1</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+      <c r="O6" s="12"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
         <v>3</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>4</v>
       </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
         <v>2</v>
       </c>
-      <c r="G7" s="14">
-        <v>1</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14">
-        <v>1</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="9" t="s">
+      <c r="H7" s="13">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="24">
+        <v>2</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="N7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+      <c r="O7" s="12"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
         <v>4</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>5</v>
       </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
         <v>3</v>
       </c>
-      <c r="G8" s="14">
-        <v>1</v>
-      </c>
-      <c r="H8" s="14">
-        <v>0</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="9" t="s">
+      <c r="H8" s="13">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="24">
+        <v>1</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="N8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+      <c r="O8" s="10"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
         <v>5</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>6</v>
       </c>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
         <v>3</v>
       </c>
-      <c r="G9" s="14">
-        <v>0</v>
-      </c>
-      <c r="H9" s="14">
-        <v>0</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="9" t="s">
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="24">
+        <v>2</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="N9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+      <c r="O9" s="10"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <v>6</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>7</v>
       </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9">
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
         <v>3</v>
       </c>
-      <c r="G10" s="14">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14">
-        <v>0</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="9" t="s">
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="24">
+        <v>1</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+      <c r="O10" s="12"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <v>7</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>8</v>
       </c>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
         <v>4</v>
       </c>
-      <c r="G11" s="14">
-        <v>1</v>
-      </c>
-      <c r="H11" s="14">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="9" t="s">
+      <c r="H11" s="13">
+        <v>1</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="24">
+        <v>2</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="N11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+      <c r="O11" s="12"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
         <v>8</v>
       </c>
       <c r="B12">
         <v>7</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>9</v>
       </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
         <v>5</v>
       </c>
-      <c r="G12" s="14">
-        <v>1</v>
-      </c>
-      <c r="H12" s="14">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="9" t="s">
+      <c r="H12" s="13">
+        <v>1</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="24">
+        <v>1</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="N12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
+      <c r="O12" s="12"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
         <v>9</v>
       </c>
       <c r="B13">
         <v>8</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>10</v>
       </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9">
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
         <v>5</v>
       </c>
-      <c r="G13" s="14">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="9" t="s">
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="24">
+        <v>2</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="N13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
         <v>10</v>
       </c>
       <c r="B14">
         <v>9</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>11</v>
       </c>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
         <v>5</v>
       </c>
-      <c r="G14" s="14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
         <v>500</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="9" t="s">
+      <c r="J14" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="24">
+        <v>2</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="M14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="N14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
         <v>11</v>
       </c>
       <c r="B15">
         <v>10</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>12</v>
       </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
         <v>5</v>
       </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15"/>
-      <c r="M15" s="9" t="s">
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="24">
+        <v>1</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15"/>
+      <c r="N15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
         <v>12</v>
       </c>
       <c r="B16">
         <v>11</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>13</v>
       </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
-        <v>1</v>
-      </c>
-      <c r="F16" s="9">
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
         <v>5</v>
       </c>
-      <c r="G16" s="14">
-        <v>0</v>
-      </c>
-      <c r="H16" s="14">
-        <v>0</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16"/>
-      <c r="M16" s="9" t="s">
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="24">
+        <v>1</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
         <v>13</v>
       </c>
       <c r="B17">
         <v>12</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>14</v>
       </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
         <v>6</v>
       </c>
-      <c r="G17" s="14">
-        <v>1</v>
-      </c>
-      <c r="H17" s="14">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="9" t="s">
+      <c r="H17" s="13">
+        <v>1</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="24">
+        <v>1</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="N17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
         <v>14</v>
       </c>
       <c r="B18">
         <v>13</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>15</v>
       </c>
-      <c r="D18" s="9">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
         <v>6</v>
       </c>
-      <c r="G18" s="23">
-        <v>0</v>
-      </c>
-      <c r="H18" s="23">
-        <v>0</v>
-      </c>
-      <c r="L18" s="8" t="s">
+      <c r="H18" s="22">
+        <v>0</v>
+      </c>
+      <c r="I18" s="22">
+        <v>0</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="24">
+        <v>2</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="M18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="N18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="O18" s="6"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
         <v>15</v>
       </c>
       <c r="B19">
         <v>14</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>16</v>
       </c>
-      <c r="D19" s="9">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9">
-        <v>1</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
         <v>6</v>
       </c>
-      <c r="G19" s="24">
-        <v>0</v>
-      </c>
       <c r="H19" s="23">
         <v>0</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="I19" s="22">
+        <v>0</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="24">
+        <v>1</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="N19" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
         <v>16</v>
       </c>
       <c r="B20">
         <v>15</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>17</v>
       </c>
-      <c r="D20" s="9">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
         <v>7</v>
       </c>
-      <c r="G20" s="23">
-        <v>0</v>
-      </c>
-      <c r="H20" s="23">
-        <v>0</v>
-      </c>
-      <c r="L20" s="8" t="s">
+      <c r="H20" s="22">
+        <v>0</v>
+      </c>
+      <c r="I20" s="22">
+        <v>0</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="24">
+        <v>2</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="M20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="N20" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
         <v>17</v>
       </c>
       <c r="B21">
         <v>16</v>
       </c>
-      <c r="C21" s="10">
-        <v>0</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9">
-        <v>1</v>
-      </c>
-      <c r="F21" s="9">
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
         <v>7</v>
       </c>
-      <c r="G21" s="23">
-        <v>0</v>
-      </c>
-      <c r="H21" s="23">
-        <v>0</v>
-      </c>
-      <c r="L21" s="8" t="s">
+      <c r="H21" s="22">
+        <v>0</v>
+      </c>
+      <c r="I21" s="22">
+        <v>0</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="24">
+        <v>2</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="M21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="N21" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
       <c r="B32"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
+      <c r="A33" s="9"/>
       <c r="B33"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
+      <c r="A34" s="9"/>
       <c r="B34"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
+      <c r="A35" s="9"/>
       <c r="B35"/>
     </row>
   </sheetData>
@@ -1769,10 +2004,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1780,7 +2015,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1788,7 +2023,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1796,7 +2031,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>22</v>
       </c>
     </row>

--- a/docs/excel/TGuide.xlsx
+++ b/docs/excel/TGuide.xlsx
@@ -918,7 +918,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1055,7 +1055,7 @@
       <c r="O3" s="11"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:21" ht="29.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>66</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="13">
         <v>1</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" s="13">
         <v>1</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="13">
         <v>1</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="13">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="13">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11" s="13">
         <v>1</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H12" s="13">
         <v>1</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13" s="13">
         <v>0</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H14" s="13">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15" s="13">
         <v>0</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H16" s="13">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H17" s="13">
         <v>1</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H18" s="22">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H19" s="23">
         <v>0</v>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H20" s="22">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H21" s="22">
         <v>0</v>

--- a/docs/excel/TGuide.xlsx
+++ b/docs/excel/TGuide.xlsx
@@ -313,10 +313,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>面板枚举，按钮名称，坐标偏移，x,y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>#</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -353,14 +349,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>完成参数(any，点击任何地方完成)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>该步引导完成类型(0.触发即完成1.点击面板元素)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>22,goinRoom_btn</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -441,6 +429,18 @@
   </si>
   <si>
     <t>msg.GW2C_AckHouseCellLevelUp</t>
+  </si>
+  <si>
+    <t>面板枚举，按钮名称，坐标偏移，擦除区域大小x,y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>该步引导完成类型(0.触发即完成1.点击面板元素2.协议返回)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成参数(点击参数填any，点击任何地方完成)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -918,7 +918,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -933,7 +933,7 @@
     <col min="8" max="8" width="59.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.796875" style="4" customWidth="1"/>
     <col min="10" max="10" width="24.3984375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12.19921875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11" style="5" customWidth="1"/>
     <col min="12" max="12" width="26.796875" style="5" customWidth="1"/>
     <col min="13" max="13" width="16.19921875" style="4" customWidth="1"/>
     <col min="14" max="14" width="23" style="4" customWidth="1"/>
@@ -958,10 +958,10 @@
         <v>32</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>28</v>
@@ -976,16 +976,16 @@
         <v>26</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M1" s="11" t="s">
         <v>27</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O1" s="11"/>
       <c r="S1" s="6"/>
@@ -1024,10 +1024,10 @@
         <v>31</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>31</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>37</v>
@@ -1066,31 +1066,31 @@
         <v>36</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>35</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>63</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>34</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K6" s="24">
         <v>1</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="8" t="s">
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K7" s="24">
         <v>2</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>40</v>
@@ -1249,13 +1249,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K8" s="24">
         <v>1</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>41</v>
@@ -1295,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K9" s="24">
         <v>2</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>43</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K10" s="24">
         <v>1</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="8" t="s">
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K11" s="24">
         <v>2</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>46</v>
@@ -1431,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K12" s="24">
         <v>1</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>48</v>
@@ -1477,13 +1477,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K13" s="24">
         <v>2</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>50</v>
@@ -1522,13 +1522,13 @@
         <v>500</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K14" s="24">
         <v>2</v>
       </c>
       <c r="L14" s="25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>52</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K15" s="24">
         <v>1</v>
       </c>
       <c r="L15" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M15"/>
       <c r="N15" s="8" t="s">
@@ -1610,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K16" s="24">
         <v>1</v>
       </c>
       <c r="L16" s="25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M16"/>
       <c r="N16" s="8" t="s">
@@ -1653,13 +1653,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K17" s="24">
         <v>1</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>55</v>
@@ -1698,13 +1698,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K18" s="24">
         <v>2</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M18" s="7" t="s">
         <v>57</v>
@@ -1743,13 +1743,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K19" s="24">
         <v>1</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N19" s="7" t="s">
         <v>44</v>
@@ -1784,13 +1784,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K20" s="24">
         <v>2</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>58</v>
@@ -1828,13 +1828,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K21" s="24">
         <v>2</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>59</v>

--- a/docs/excel/TGuide.xlsx
+++ b/docs/excel/TGuide.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="101">
   <si>
     <t>Id</t>
   </si>
@@ -269,10 +269,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>指向邻居列表的返回按钮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TableName: "TGuide" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -349,97 +345,117 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>自动完成,只要引导触发就算该步骤完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoFinishFlag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg.GW2C_AckTakeSelfHouseGoldRet</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckTakeSelfHouseGoldRet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndFlag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,level_btn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,532,440, 170,66</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,361,627,135,219</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg.GW2C_AckHouseLevelUp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,hideList_btn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,482,458,135,219</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,lingju_btn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,517,431,150,56</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg.GW2C_AckHouseDataByHouseId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg.GW2C_AckTakeOtherHouseGoldRet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,titlePanel,return_btn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,16,5,160,60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,532,606, 170,66</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg.GW2C_AckHouseCellLevelUp</t>
+  </si>
+  <si>
+    <t>面板枚举，按钮名称，坐标偏移，擦除区域大小x,y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>该步引导完成类型(0.触发即完成1.点击面板元素2.协议返回)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成参数(点击参数填any，点击任何地方完成)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,356,637,135,219</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,level_btn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,361,627,135,219</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>22,goinRoom_btn</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>自动完成,只要引导触发就算该步骤完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoFinishFlag</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>msg.GW2C_AckTakeSelfHouseGoldRet</t>
-  </si>
-  <si>
-    <t>msg.GW2C_AckTakeSelfHouseGoldRet</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndFlag</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,level_btn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,none,532,440, 170,66</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,none,361,627,135,219</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg.GW2C_AckHouseLevelUp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,hideList_btn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,none,482,458,135,219</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,lingju_btn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,none,517,431,150,56</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg.GW2C_AckHouseDataByHouseId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,none,356,637,135,219</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg.GW2C_AckTakeOtherHouseGoldRet</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,titlePanel,return_btn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,none,16,5,160,60</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,none,532,606, 170,66</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg.GW2C_AckHouseCellLevelUp</t>
-  </si>
-  <si>
-    <t>面板枚举，按钮名称，坐标偏移，擦除区域大小x,y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>该步引导完成类型(0.触发即完成1.点击面板元素2.协议返回)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成参数(点击参数填any，点击任何地方完成)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指示箭头方向(1.上 2.下 3.左 4.右)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -915,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -932,19 +948,19 @@
     <col min="7" max="7" width="6.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="59.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.796875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="24.3984375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11" style="5" customWidth="1"/>
-    <col min="12" max="12" width="26.796875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="16.19921875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="23" style="4" customWidth="1"/>
-    <col min="16" max="16" width="10.59765625" customWidth="1"/>
-    <col min="17" max="17" width="23.8984375" customWidth="1"/>
-    <col min="18" max="18" width="24.3984375" customWidth="1"/>
-    <col min="20" max="20" width="12.8984375" customWidth="1"/>
-    <col min="21" max="21" width="14.8984375" customWidth="1"/>
+    <col min="10" max="11" width="24.3984375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11" style="5" customWidth="1"/>
+    <col min="13" max="13" width="26.796875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="16.19921875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="23" style="4" customWidth="1"/>
+    <col min="17" max="17" width="10.59765625" customWidth="1"/>
+    <col min="18" max="18" width="23.8984375" customWidth="1"/>
+    <col min="19" max="19" width="24.3984375" customWidth="1"/>
+    <col min="21" max="21" width="12.8984375" customWidth="1"/>
+    <col min="22" max="22" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -958,10 +974,10 @@
         <v>32</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>28</v>
@@ -970,29 +986,32 @@
         <v>25</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>26</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" s="11"/>
-      <c r="S1" s="6"/>
+      <c r="O1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="11"/>
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V1" s="6"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>29</v>
       </c>
@@ -1015,28 +1034,29 @@
         <v>30</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>69</v>
-      </c>
+      <c r="K2" s="12"/>
       <c r="L2" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="11"/>
       <c r="O2" s="11"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -1051,13 +1071,14 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="11"/>
+      <c r="N3" s="12"/>
       <c r="O3" s="11"/>
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P3" s="11"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>37</v>
@@ -1066,40 +1087,43 @@
         <v>36</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>35</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="M4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V4" s="8"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -1126,11 +1150,12 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
-      <c r="M5" s="11"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="6"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M5" s="13"/>
+      <c r="N5" s="11"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -1159,22 +1184,25 @@
         <v>0</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="K6" s="24">
         <v>1</v>
       </c>
-      <c r="L6" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="6"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L6" s="24">
+        <v>1</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -1203,24 +1231,27 @@
         <v>0</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="K7" s="24">
+        <v>1</v>
+      </c>
+      <c r="L7" s="24">
         <v>2</v>
       </c>
-      <c r="L7" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="O7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="6"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P7" s="12"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -1249,24 +1280,27 @@
         <v>0</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K8" s="24">
         <v>1</v>
       </c>
-      <c r="L8" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="M8" s="8" t="s">
+      <c r="L8" s="24">
+        <v>1</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="O8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="6"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P8" s="10"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -1295,24 +1329,27 @@
         <v>0</v>
       </c>
       <c r="J9" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="24">
+        <v>1</v>
+      </c>
+      <c r="L9" s="24">
+        <v>2</v>
+      </c>
+      <c r="M9" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="24">
-        <v>2</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="M9" s="8" t="s">
+      <c r="N9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="O9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="O9" s="10"/>
-      <c r="P9" s="6"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P9" s="10"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -1341,22 +1378,25 @@
         <v>0</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K10" s="24">
         <v>1</v>
       </c>
-      <c r="L10" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="8" t="s">
+      <c r="L10" s="24">
+        <v>1</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P10" s="12"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>7</v>
       </c>
@@ -1385,24 +1425,27 @@
         <v>0</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K11" s="24">
+        <v>1</v>
+      </c>
+      <c r="L11" s="24">
         <v>2</v>
       </c>
-      <c r="L11" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="O11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P11" s="12"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -1431,24 +1474,27 @@
         <v>0</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K12" s="24">
         <v>1</v>
       </c>
-      <c r="L12" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="M12" s="8" t="s">
+      <c r="L12" s="24">
+        <v>1</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="O12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P12" s="12"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>9</v>
       </c>
@@ -1477,23 +1523,26 @@
         <v>0</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K13" s="24">
+        <v>1</v>
+      </c>
+      <c r="L13" s="24">
         <v>2</v>
       </c>
-      <c r="L13" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="O13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -1522,23 +1571,26 @@
         <v>500</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K14" s="24">
+        <v>1</v>
+      </c>
+      <c r="L14" s="24">
         <v>2</v>
       </c>
-      <c r="L14" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="O14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="P14" s="6"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>11</v>
       </c>
@@ -1552,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="8">
         <v>0</v>
@@ -1567,21 +1619,24 @@
         <v>0</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K15" s="24">
         <v>1</v>
       </c>
-      <c r="L15" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="M15"/>
-      <c r="N15" s="8" t="s">
+      <c r="L15" s="24">
+        <v>1</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15"/>
+      <c r="O15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="P15" s="6"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>12</v>
       </c>
@@ -1595,36 +1650,41 @@
         <v>0</v>
       </c>
       <c r="E16" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="8">
         <v>0</v>
       </c>
       <c r="G16" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H16" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="13">
         <v>0</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K16" s="24">
         <v>1</v>
       </c>
-      <c r="L16" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="M16"/>
+      <c r="L16" s="24">
+        <v>1</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>77</v>
+      </c>
       <c r="N16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>13</v>
       </c>
@@ -1635,7 +1695,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="8">
         <v>0</v>
@@ -1646,30 +1706,33 @@
       <c r="G17" s="8">
         <v>7</v>
       </c>
-      <c r="H17" s="13">
-        <v>1</v>
-      </c>
-      <c r="I17" s="13">
+      <c r="H17" s="22">
+        <v>0</v>
+      </c>
+      <c r="I17" s="22">
         <v>0</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K17" s="24">
         <v>1</v>
       </c>
-      <c r="L17" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="M17" s="8" t="s">
+      <c r="L17" s="24">
+        <v>2</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="N17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>14</v>
       </c>
@@ -1680,10 +1743,10 @@
         <v>15</v>
       </c>
       <c r="D18" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="8">
         <v>0</v>
@@ -1691,30 +1754,29 @@
       <c r="G18" s="8">
         <v>7</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="23">
         <v>0</v>
       </c>
       <c r="I18" s="22">
         <v>0</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K18" s="24">
-        <v>2</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="24">
+        <v>1</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>15</v>
       </c>
@@ -1725,37 +1787,43 @@
         <v>16</v>
       </c>
       <c r="D19" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="8">
         <v>0</v>
       </c>
       <c r="G19" s="8">
-        <v>7</v>
-      </c>
-      <c r="H19" s="23">
+        <v>8</v>
+      </c>
+      <c r="H19" s="22">
         <v>0</v>
       </c>
       <c r="I19" s="22">
         <v>0</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K19" s="24">
         <v>1</v>
       </c>
-      <c r="L19" s="24" t="s">
-        <v>83</v>
+      <c r="L19" s="24">
+        <v>2</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>16</v>
       </c>
@@ -1763,13 +1831,13 @@
         <v>15</v>
       </c>
       <c r="C20" s="9">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
       </c>
       <c r="E20" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="8">
         <v>0</v>
@@ -1784,106 +1852,69 @@
         <v>0</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K20" s="24">
+        <v>1</v>
+      </c>
+      <c r="L20" s="24">
         <v>2</v>
       </c>
-      <c r="L20" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="N20" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="9">
-        <v>17</v>
-      </c>
-      <c r="B21">
-        <v>16</v>
-      </c>
-      <c r="C21" s="9">
-        <v>0</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>1</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8</v>
-      </c>
-      <c r="H21" s="22">
-        <v>0</v>
-      </c>
-      <c r="I21" s="22">
-        <v>0</v>
-      </c>
-      <c r="J21" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="K21" s="24">
-        <v>2</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="N21" s="7" t="s">
+      <c r="O20" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32"/>
     </row>
@@ -1894,10 +1925,6 @@
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1927,7 +1954,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TGuide.xlsx
+++ b/docs/excel/TGuide.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
   <si>
     <t>Id</t>
   </si>
@@ -329,133 +329,133 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>客户端完成标记1.完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器完成标记1.完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型(0.立即执行下一步引导，如果下一步引导不在，则停止引导;1.面板打开)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动完成,只要引导触发就算该步骤完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoFinishFlag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg.GW2C_AckTakeSelfHouseGoldRet</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckTakeSelfHouseGoldRet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndFlag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,level_btn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,532,440, 170,66</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,361,627,135,219</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg.GW2C_AckHouseLevelUp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,hideList_btn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,482,458,135,219</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,lingju_btn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,517,431,150,56</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg.GW2C_AckHouseDataByHouseId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg.GW2C_AckTakeOtherHouseGoldRet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,titlePanel,return_btn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,16,5,160,60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,532,606, 170,66</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg.GW2C_AckHouseCellLevelUp</t>
+  </si>
+  <si>
+    <t>面板枚举，按钮名称，坐标偏移，擦除区域大小x,y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>该步引导完成类型(0.触发即完成1.点击面板元素2.协议返回)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成参数(点击参数填any，点击任何地方完成)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,356,637,135,219</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,level_btn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,361,627,135,219</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,goinRoom_btn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg.GW2C_AckTakeSelfHouseGoldRet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指示箭头方向(1.上 2.下 3.左 4.右)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>int32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端完成标记1.完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器完成标记1.完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型(0.立即执行下一步引导，如果下一步引导不在，则停止引导;1.面板打开)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动完成,只要引导触发就算该步骤完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoFinishFlag</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg.GW2C_AckTakeSelfHouseGoldRet</t>
-  </si>
-  <si>
-    <t>msg.GW2C_AckTakeSelfHouseGoldRet</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndFlag</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,level_btn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,none,532,440, 170,66</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,none,361,627,135,219</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg.GW2C_AckHouseLevelUp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,hideList_btn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,none,482,458,135,219</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,lingju_btn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,none,517,431,150,56</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg.GW2C_AckHouseDataByHouseId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg.GW2C_AckTakeOtherHouseGoldRet</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,titlePanel,return_btn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,none,16,5,160,60</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,none,532,606, 170,66</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg.GW2C_AckHouseCellLevelUp</t>
-  </si>
-  <si>
-    <t>面板枚举，按钮名称，坐标偏移，擦除区域大小x,y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>该步引导完成类型(0.触发即完成1.点击面板元素2.协议返回)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成参数(点击参数填any，点击任何地方完成)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,none,356,637,135,219</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,level_btn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,none,361,627,135,219</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>22,goinRoom_btn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg.GW2C_AckTakeSelfHouseGoldRet</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Direction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>指示箭头方向(1.上 2.下 3.左 4.右)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -934,7 +934,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -974,10 +974,10 @@
         <v>32</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>28</v>
@@ -992,7 +992,7 @@
         <v>26</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>67</v>
@@ -1042,9 +1042,11 @@
       <c r="J2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="12"/>
+      <c r="K2" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="L2" s="12" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>66</v>
@@ -1087,34 +1089,34 @@
         <v>36</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>35</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>62</v>
       </c>
       <c r="J4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="L4" s="18" t="s">
+      <c r="M4" s="18" t="s">
         <v>92</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>93</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>34</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K6" s="24">
         <v>1</v>
@@ -1193,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N6" s="11"/>
       <c r="O6" s="8" t="s">
@@ -1231,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K7" s="24">
         <v>1</v>
@@ -1240,7 +1242,7 @@
         <v>2</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>40</v>
@@ -1280,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K8" s="24">
         <v>1</v>
@@ -1289,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>41</v>
@@ -1329,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K9" s="24">
         <v>1</v>
@@ -1338,7 +1340,7 @@
         <v>2</v>
       </c>
       <c r="M9" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>43</v>
@@ -1378,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="24">
         <v>1</v>
@@ -1387,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="8" t="s">
@@ -1425,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K11" s="24">
         <v>1</v>
@@ -1434,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="M11" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N11" s="8" t="s">
         <v>46</v>
@@ -1474,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K12" s="24">
         <v>1</v>
@@ -1483,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>48</v>
@@ -1523,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K13" s="24">
         <v>1</v>
@@ -1532,7 +1534,7 @@
         <v>2</v>
       </c>
       <c r="M13" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>50</v>
@@ -1571,7 +1573,7 @@
         <v>500</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K14" s="24">
         <v>1</v>
@@ -1580,7 +1582,7 @@
         <v>2</v>
       </c>
       <c r="M14" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N14" s="8" t="s">
         <v>52</v>
@@ -1619,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K15" s="24">
         <v>1</v>
@@ -1628,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N15"/>
       <c r="O15" s="8" t="s">
@@ -1665,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K16" s="24">
         <v>1</v>
@@ -1674,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N16" s="8" t="s">
         <v>54</v>
@@ -1713,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K17" s="24">
         <v>1</v>
@@ -1722,7 +1724,7 @@
         <v>2</v>
       </c>
       <c r="M17" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N17" s="7" t="s">
         <v>56</v>
@@ -1761,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K18" s="24">
         <v>1</v>
@@ -1770,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>44</v>
@@ -1805,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K19" s="24">
         <v>1</v>
@@ -1814,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N19" s="7" t="s">
         <v>57</v>
@@ -1852,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K20" s="24">
         <v>1</v>
@@ -1861,7 +1863,7 @@
         <v>2</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N20" s="7" t="s">
         <v>58</v>

--- a/docs/excel/TGuide.xlsx
+++ b/docs/excel/TGuide.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="104">
   <si>
     <t>Id</t>
   </si>
@@ -400,62 +400,74 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>19,none,16,5,160,60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg.GW2C_AckHouseCellLevelUp</t>
+  </si>
+  <si>
+    <t>面板枚举，按钮名称，坐标偏移，擦除区域大小x,y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>该步引导完成类型(0.触发即完成1.点击面板元素2.协议返回)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成参数(点击参数填any，点击任何地方完成)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,356,637,135,219</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,361,627,135,219</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,goinRoom_btn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg.GW2C_AckTakeSelfHouseGoldRet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指示箭头方向(1.上 2.下 3.左 4.右)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,532,606, 170,66</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,none,247,774,217,221</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,none,197,278,120,130</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>19,titlePanel,return_btn</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>19,none,16,5,160,60</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,none,532,606, 170,66</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg.GW2C_AckHouseCellLevelUp</t>
-  </si>
-  <si>
-    <t>面板枚举，按钮名称，坐标偏移，擦除区域大小x,y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>该步引导完成类型(0.触发即完成1.点击面板元素2.协议返回)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成参数(点击参数填any，点击任何地方完成)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,none,356,637,135,219</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,level_btn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,none,361,627,135,219</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>22,goinRoom_btn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg.GW2C_AckTakeSelfHouseGoldRet</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Direction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>指示箭头方向(1.上 2.下 3.左 4.右)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
+    <t>BgAlpha</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +542,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -589,6 +601,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -931,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -950,17 +965,17 @@
     <col min="9" max="9" width="7.796875" style="4" customWidth="1"/>
     <col min="10" max="11" width="24.3984375" style="5" customWidth="1"/>
     <col min="12" max="12" width="11" style="5" customWidth="1"/>
-    <col min="13" max="13" width="26.796875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="16.19921875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="23" style="4" customWidth="1"/>
-    <col min="17" max="17" width="10.59765625" customWidth="1"/>
-    <col min="18" max="18" width="23.8984375" customWidth="1"/>
-    <col min="19" max="19" width="24.3984375" customWidth="1"/>
-    <col min="21" max="21" width="12.8984375" customWidth="1"/>
-    <col min="22" max="22" width="14.8984375" customWidth="1"/>
+    <col min="13" max="14" width="26.796875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="16.19921875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="23" style="4" customWidth="1"/>
+    <col min="18" max="18" width="10.59765625" customWidth="1"/>
+    <col min="19" max="19" width="23.8984375" customWidth="1"/>
+    <col min="20" max="20" width="24.3984375" customWidth="1"/>
+    <col min="22" max="22" width="12.8984375" customWidth="1"/>
+    <col min="23" max="23" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -992,7 +1007,7 @@
         <v>26</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>67</v>
@@ -1001,17 +1016,20 @@
         <v>65</v>
       </c>
       <c r="N1" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="T1" s="6"/>
+      <c r="Q1" s="11"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W1" s="6"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>29</v>
       </c>
@@ -1046,19 +1064,22 @@
         <v>30</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>66</v>
       </c>
       <c r="N2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="11"/>
       <c r="P2" s="11"/>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Q2" s="11"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -1074,11 +1095,12 @@
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
-      <c r="O3" s="11"/>
+      <c r="O3" s="12"/>
       <c r="P3" s="11"/>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>64</v>
       </c>
@@ -1107,25 +1129,26 @@
         <v>62</v>
       </c>
       <c r="J4" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="K4" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="18"/>
+      <c r="O4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W4" s="8"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -1153,11 +1176,14 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
-      <c r="N5" s="11"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="N5" s="13">
+        <v>0</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -1186,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K6" s="24">
         <v>1</v>
@@ -1195,16 +1221,19 @@
         <v>1</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Q6" s="12"/>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -1233,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K7" s="24">
         <v>1</v>
@@ -1242,18 +1271,21 @@
         <v>2</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="N7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="P7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Q7" s="12"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -1293,16 +1325,19 @@
       <c r="M8" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="O8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="P8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Q8" s="10"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -1342,16 +1377,19 @@
       <c r="M9" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="P9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Q9" s="10"/>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -1391,14 +1429,17 @@
       <c r="M10" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="8" t="s">
+      <c r="N10" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Q10" s="12"/>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>7</v>
       </c>
@@ -1438,16 +1479,19 @@
       <c r="M11" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="P11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Q11" s="12"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -1487,16 +1531,19 @@
       <c r="M12" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="O12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="P12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Q12" s="12"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>9</v>
       </c>
@@ -1536,15 +1583,18 @@
       <c r="M13" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N13" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="O13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="P13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -1573,7 +1623,7 @@
         <v>500</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K14" s="24">
         <v>1</v>
@@ -1584,15 +1634,18 @@
       <c r="M14" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N14" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="O14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="P14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>11</v>
       </c>
@@ -1621,24 +1674,27 @@
         <v>0</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K15" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" s="24">
         <v>1</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="N15"/>
-      <c r="O15" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N15" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="O15"/>
+      <c r="P15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>12</v>
       </c>
@@ -1667,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K16" s="24">
         <v>1</v>
@@ -1678,15 +1734,18 @@
       <c r="M16" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="N16" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="O16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="P16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>13</v>
       </c>
@@ -1715,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K17" s="24">
         <v>1</v>
@@ -1724,17 +1783,20 @@
         <v>2</v>
       </c>
       <c r="M17" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="N17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N17" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="Q17" s="6"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>14</v>
       </c>
@@ -1774,11 +1836,14 @@
       <c r="M18" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="N18" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>15</v>
       </c>
@@ -1818,14 +1883,17 @@
       <c r="M19" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>16</v>
       </c>
@@ -1865,58 +1933,61 @@
       <c r="M20" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32"/>
     </row>
